--- a/data_in/Baasner Libertinage und Empfindsamkeit_156.xlsx
+++ b/data_in/Baasner Libertinage und Empfindsamkeit_156.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luckyz7\Desktop\Tag TAsk\Tables - In Progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\mimotext\Relation_Extraction_pubs\data_in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C6262E-71DC-42FF-8E15-E2FD731B6791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-111" yWindow="-111" windowWidth="23254" windowHeight="12574"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1720,7 +1719,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1770,14 +1769,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2076,25 +2078,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C133" workbookViewId="0">
-      <selection activeCell="J154" sqref="J154"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="4.88671875" customWidth="1"/>
-    <col min="9" max="9" width="21.21875" customWidth="1"/>
-    <col min="10" max="10" width="42.6640625" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
+    <col min="1" max="3" width="9.23046875" style="2"/>
+    <col min="4" max="4" width="80.765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="49.3046875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.23046875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="4.84375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.23046875" style="2"/>
+    <col min="9" max="9" width="21.23046875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="42.69140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2132,5044 +2137,5044 @@
         <v>463</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="3" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="4" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
+    <row r="5" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
+    <row r="6" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
+    <row r="7" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
+    <row r="8" spans="1:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
+    <row r="9" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
+    <row r="10" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="11" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="12" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="13" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="14" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15">
+    <row r="15" spans="1:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
         <v>17</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
+    <row r="16" spans="1:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2">
         <v>17</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
+    <row r="17" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="F17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
+    <row r="18" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="F18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
+    <row r="19" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2">
         <v>17</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="F19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20">
+    <row r="20" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2">
         <v>17</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21">
+    <row r="21" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2">
         <v>17</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="F21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="22" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="F22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="23" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="F23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24">
+    <row r="24" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2">
         <v>18</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="F24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25">
+    <row r="25" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2">
         <v>18</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="G25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26">
+    <row r="26" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2">
         <v>18</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="F26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27">
+    <row r="27" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2">
         <v>18</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="F27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28">
+    <row r="28" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2">
         <v>19</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="F28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="2" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29">
+    <row r="29" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2">
         <v>19</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="F29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30">
+    <row r="30" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2">
         <v>19</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="F30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31">
+    <row r="31" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2">
         <v>19</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="F31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32">
+    <row r="32" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2">
         <v>19</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="F32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33">
+    <row r="33" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2">
         <v>19</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="F33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34">
+    <row r="34" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2">
         <v>19</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="F34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35">
+    <row r="35" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2">
         <v>19</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="F35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36">
+    <row r="36" spans="1:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2">
         <v>19</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="F36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37">
+    <row r="37" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2">
         <v>19</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="F37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38">
+    <row r="38" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2">
         <v>19</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="G38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39">
+    <row r="39" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2">
         <v>19</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="G39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40">
+    <row r="40" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2">
         <v>19</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="G40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41">
+    <row r="41" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2">
         <v>19</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="G41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42">
+    <row r="42" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2">
         <v>19</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="F42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43">
+    <row r="43" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2">
         <v>19</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="F43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44">
+    <row r="44" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2">
         <v>19</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="F44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45">
+    <row r="45" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2">
         <v>19</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="F45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46">
+    <row r="46" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2">
         <v>19</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="G46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47">
+    <row r="47" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2">
         <v>19</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="G47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48">
+    <row r="48" spans="1:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2">
         <v>21</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="F48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49">
+    <row r="49" spans="1:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2">
         <v>21</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="F49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50">
+    <row r="50" spans="1:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2">
         <v>21</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="G50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51">
+    <row r="51" spans="1:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2">
         <v>21</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="G51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52">
+    <row r="52" spans="1:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="2">
         <v>21</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="G52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" t="s">
+    <row r="53" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="G53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" t="s">
+    <row r="54" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="G54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55">
+    <row r="55" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="2">
         <v>22</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="G55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56">
+    <row r="56" spans="1:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="2">
         <v>22</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="G56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57">
+    <row r="57" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="2">
         <v>22</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="G57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L57" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58">
+    <row r="58" spans="1:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="2">
         <v>22</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="F58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59">
+    <row r="59" spans="1:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="2">
         <v>22</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="F59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L59" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60">
+    <row r="60" spans="1:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="2">
         <v>22</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="G60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L60" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61">
+    <row r="61" spans="1:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="2">
         <v>22</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="G61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62">
+    <row r="62" spans="1:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="2">
         <v>22</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="G62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L62" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63">
+    <row r="63" spans="1:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="2">
         <v>22</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="G63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64">
+    <row r="64" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2">
         <v>22</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="F64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J64" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65">
+    <row r="65" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="A65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="2">
         <v>23</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="G65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J65" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66">
+    <row r="66" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2">
         <v>23</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="G66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J66" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K66" s="2" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67">
+    <row r="67" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="A67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="2">
         <v>23</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="G67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68">
+    <row r="68" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="A68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="2">
         <v>23</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="F68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69">
+    <row r="69" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="A69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="2">
         <v>23</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F69" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" t="s">
-        <v>15</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="F69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70">
+    <row r="70" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="A70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="2">
         <v>23</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F70" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
-      <c r="I70" t="s">
+      <c r="F70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K70" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71">
-        <v>24</v>
-      </c>
-      <c r="D71" t="s">
+    <row r="71" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="2">
+        <v>24</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G71" t="s">
-        <v>15</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="G71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K71" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72">
-        <v>24</v>
-      </c>
-      <c r="D72" t="s">
+    <row r="72" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="2">
+        <v>24</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="G72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L72" t="s">
+      <c r="L72" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73">
-        <v>24</v>
-      </c>
-      <c r="D73" t="s">
+    <row r="73" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="2">
+        <v>24</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
-      <c r="I73" t="s">
+      <c r="G73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J73" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K73" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74">
+    <row r="74" spans="1:12" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="A74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="2">
         <v>25</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="F74" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="F74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J74" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K74" t="s">
+      <c r="K74" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>11</v>
-      </c>
-      <c r="B75" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75">
+    <row r="75" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="2">
         <v>25</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F75" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
-      <c r="I75" t="s">
+      <c r="F75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J75" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K75" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76">
+    <row r="76" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="2">
         <v>25</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F76" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="F76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J76" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="K76" t="s">
+      <c r="K76" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>11</v>
-      </c>
-      <c r="B77" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77">
+    <row r="77" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="2">
         <v>25</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G77" t="s">
-        <v>15</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="G77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J77" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K77" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>11</v>
-      </c>
-      <c r="B78" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78">
+    <row r="78" spans="1:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="2">
         <v>25</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="G78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J78" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K78" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79">
+    <row r="79" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="2">
         <v>26</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s">
-        <v>15</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="F79" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J79" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K79" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>11</v>
-      </c>
-      <c r="B80" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80">
+    <row r="80" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="2">
         <v>26</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G80" t="s">
-        <v>15</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="G80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I80" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="J80" t="s">
+      <c r="J80" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K80" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>11</v>
-      </c>
-      <c r="B81" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81">
+    <row r="81" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="2">
         <v>26</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>15</v>
-      </c>
-      <c r="I81" t="s">
+      <c r="F81" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J81" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K81" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>11</v>
-      </c>
-      <c r="B82" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82">
+    <row r="82" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="A82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="2">
         <v>26</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G82" t="s">
-        <v>15</v>
-      </c>
-      <c r="I82" t="s">
+      <c r="G82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J82" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>11</v>
-      </c>
-      <c r="B83" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83">
+    <row r="83" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="2">
         <v>30</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s">
-        <v>15</v>
-      </c>
-      <c r="I83" t="s">
+      <c r="F83" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J83" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="K83" t="s">
+      <c r="K83" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84">
+    <row r="84" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="2">
         <v>30</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F84" t="s">
-        <v>24</v>
-      </c>
-      <c r="G84" t="s">
-        <v>15</v>
-      </c>
-      <c r="I84" t="s">
+      <c r="F84" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I84" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="J84" t="s">
+      <c r="J84" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K84" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>11</v>
-      </c>
-      <c r="B85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85">
+    <row r="85" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="2">
         <v>30</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G85" t="s">
-        <v>15</v>
-      </c>
-      <c r="I85" t="s">
+      <c r="G85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J85" t="s">
+      <c r="J85" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K85" t="s">
+      <c r="K85" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86">
+    <row r="86" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="2">
         <v>30</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G86" t="s">
-        <v>15</v>
-      </c>
-      <c r="I86" t="s">
+      <c r="G86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I86" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J86" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K86" t="s">
+      <c r="K86" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87">
+    <row r="87" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="2">
         <v>31</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G87" t="s">
-        <v>15</v>
-      </c>
-      <c r="I87" t="s">
+      <c r="G87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J87" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="K87" t="s">
+      <c r="K87" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>11</v>
-      </c>
-      <c r="B88" t="s">
-        <v>12</v>
-      </c>
-      <c r="C88">
+    <row r="88" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="2">
         <v>31</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G88" t="s">
-        <v>15</v>
-      </c>
-      <c r="I88" t="s">
+      <c r="G88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="J88" t="s">
+      <c r="J88" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="K88" t="s">
+      <c r="K88" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>11</v>
-      </c>
-      <c r="B89" t="s">
-        <v>12</v>
-      </c>
-      <c r="C89">
+    <row r="89" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="2">
         <v>31</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F89" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" t="s">
-        <v>15</v>
-      </c>
-      <c r="I89" t="s">
+      <c r="F89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J89" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="K89" t="s">
+      <c r="K89" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>11</v>
-      </c>
-      <c r="B90" t="s">
-        <v>12</v>
-      </c>
-      <c r="C90">
+    <row r="90" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="2">
         <v>31</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F90" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
-      <c r="I90" t="s">
+      <c r="F90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="J90" t="s">
+      <c r="J90" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="K90" t="s">
+      <c r="K90" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" t="s">
-        <v>12</v>
-      </c>
-      <c r="C91">
+    <row r="91" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="2">
         <v>32</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G91" t="s">
-        <v>15</v>
-      </c>
-      <c r="I91" t="s">
+      <c r="G91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J91" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K91" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>11</v>
-      </c>
-      <c r="B92" t="s">
-        <v>12</v>
-      </c>
-      <c r="C92">
+    <row r="92" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="2">
         <v>32</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G92" t="s">
-        <v>15</v>
-      </c>
-      <c r="I92" t="s">
+      <c r="G92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I92" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J92" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K92" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>11</v>
-      </c>
-      <c r="B93" t="s">
-        <v>12</v>
-      </c>
-      <c r="C93">
+    <row r="93" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="2">
         <v>32</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G93" t="s">
-        <v>15</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="G93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J93" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K93" t="s">
+      <c r="K93" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>11</v>
-      </c>
-      <c r="B94" t="s">
-        <v>12</v>
-      </c>
-      <c r="C94">
+    <row r="94" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="2">
         <v>33</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G94" t="s">
-        <v>15</v>
-      </c>
-      <c r="I94" t="s">
+      <c r="G94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K94" t="s">
+      <c r="K94" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="L94" t="s">
+      <c r="L94" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>11</v>
-      </c>
-      <c r="B95" t="s">
-        <v>12</v>
-      </c>
-      <c r="C95">
+    <row r="95" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="2">
         <v>34</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F95" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" t="s">
-        <v>15</v>
-      </c>
-      <c r="I95" t="s">
+      <c r="F95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J95" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="K95" t="s">
+      <c r="K95" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>11</v>
-      </c>
-      <c r="B96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C96">
+    <row r="96" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="2">
         <v>34</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" t="s">
-        <v>15</v>
-      </c>
-      <c r="I96" t="s">
+      <c r="F96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="J96" t="s">
+      <c r="J96" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K96" t="s">
+      <c r="K96" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>11</v>
-      </c>
-      <c r="B97" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97">
+    <row r="97" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="A97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="2">
         <v>34</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F97" t="s">
-        <v>24</v>
-      </c>
-      <c r="G97" t="s">
-        <v>15</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="F97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="K97" t="s">
+      <c r="K97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L97" t="s">
+      <c r="L97" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>11</v>
-      </c>
-      <c r="B98" t="s">
-        <v>12</v>
-      </c>
-      <c r="C98">
+    <row r="98" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="2">
         <v>34</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F98" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" t="s">
-        <v>15</v>
-      </c>
-      <c r="I98" t="s">
+      <c r="F98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J98" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="K98" t="s">
+      <c r="K98" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>11</v>
-      </c>
-      <c r="B99" t="s">
-        <v>12</v>
-      </c>
-      <c r="C99">
+    <row r="99" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="A99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="2">
         <v>34</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G99" t="s">
-        <v>15</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="G99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="K99" t="s">
+      <c r="K99" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L99" t="s">
+      <c r="L99" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>11</v>
-      </c>
-      <c r="B100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C100">
+    <row r="100" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="2">
         <v>34</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G100" t="s">
-        <v>15</v>
-      </c>
-      <c r="I100" t="s">
+      <c r="G100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="J100" t="s">
+      <c r="J100" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K100" t="s">
+      <c r="K100" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>11</v>
-      </c>
-      <c r="B101" t="s">
-        <v>12</v>
-      </c>
-      <c r="C101">
+    <row r="101" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="A101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="2">
         <v>34</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G101" t="s">
-        <v>15</v>
-      </c>
-      <c r="H101" t="s">
+      <c r="G101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K101" t="s">
+      <c r="K101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L101" t="s">
+      <c r="L101" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>11</v>
-      </c>
-      <c r="B102" t="s">
-        <v>12</v>
-      </c>
-      <c r="C102">
+    <row r="102" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="2">
         <v>34</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G102" t="s">
-        <v>15</v>
-      </c>
-      <c r="I102" t="s">
+      <c r="G102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I102" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="K102" t="s">
+      <c r="K102" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>11</v>
-      </c>
-      <c r="B103" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103">
+    <row r="103" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="2">
         <v>35</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G103" t="s">
-        <v>15</v>
-      </c>
-      <c r="I103" t="s">
+      <c r="G103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I103" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="L103" t="s">
+      <c r="L103" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>11</v>
-      </c>
-      <c r="B104" t="s">
-        <v>12</v>
-      </c>
-      <c r="C104">
+    <row r="104" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="2">
         <v>35</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G104" t="s">
-        <v>15</v>
-      </c>
-      <c r="I104" t="s">
+      <c r="G104" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="J104" t="s">
+      <c r="J104" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="K104" t="s">
+      <c r="K104" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>11</v>
-      </c>
-      <c r="B105" t="s">
-        <v>12</v>
-      </c>
-      <c r="C105">
+    <row r="105" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="2">
         <v>35</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G105" t="s">
-        <v>15</v>
-      </c>
-      <c r="I105" t="s">
+      <c r="G105" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I105" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="J105" t="s">
+      <c r="J105" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="K105" t="s">
+      <c r="K105" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>11</v>
-      </c>
-      <c r="B106" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106">
+    <row r="106" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="2">
         <v>35</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G106" t="s">
-        <v>15</v>
-      </c>
-      <c r="I106" t="s">
+      <c r="G106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="J106" t="s">
+      <c r="J106" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="K106" t="s">
+      <c r="K106" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>11</v>
-      </c>
-      <c r="B107" t="s">
-        <v>12</v>
-      </c>
-      <c r="C107">
+    <row r="107" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="2">
         <v>35</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G107" t="s">
-        <v>15</v>
-      </c>
-      <c r="I107" t="s">
+      <c r="G107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="J107" t="s">
+      <c r="J107" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="K107" t="s">
+      <c r="K107" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>11</v>
-      </c>
-      <c r="B108" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108">
+    <row r="108" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="2">
         <v>35</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G108" t="s">
-        <v>15</v>
-      </c>
-      <c r="I108" t="s">
+      <c r="G108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I108" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="J108" t="s">
+      <c r="J108" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="K108" t="s">
+      <c r="K108" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>11</v>
-      </c>
-      <c r="B109" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109">
+    <row r="109" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="2">
         <v>35</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G109" t="s">
-        <v>15</v>
-      </c>
-      <c r="I109" t="s">
+      <c r="G109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="J109" t="s">
+      <c r="J109" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K109" t="s">
+      <c r="K109" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>11</v>
-      </c>
-      <c r="B110" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110">
+    <row r="110" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="2">
         <v>35</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G110" t="s">
-        <v>15</v>
-      </c>
-      <c r="I110" t="s">
+      <c r="G110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I110" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="J110" t="s">
+      <c r="J110" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="K110" t="s">
+      <c r="K110" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>11</v>
-      </c>
-      <c r="B111" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111">
+    <row r="111" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="2">
         <v>35</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F111" t="s">
-        <v>24</v>
-      </c>
-      <c r="G111" t="s">
-        <v>15</v>
-      </c>
-      <c r="H111" t="s">
+      <c r="F111" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="J111" t="s">
+      <c r="J111" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="K111" t="s">
+      <c r="K111" s="2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>11</v>
-      </c>
-      <c r="B112" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112">
+    <row r="112" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="2">
         <v>35</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F112" t="s">
-        <v>24</v>
-      </c>
-      <c r="G112" t="s">
-        <v>15</v>
-      </c>
-      <c r="I112" t="s">
+      <c r="F112" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I112" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="J112" t="s">
+      <c r="J112" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="K112" t="s">
+      <c r="K112" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>11</v>
-      </c>
-      <c r="B113" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113">
+    <row r="113" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="2">
         <v>36</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F113" t="s">
-        <v>24</v>
-      </c>
-      <c r="G113" t="s">
-        <v>15</v>
-      </c>
-      <c r="I113" t="s">
+      <c r="F113" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I113" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="J113" t="s">
+      <c r="J113" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="K113" t="s">
+      <c r="K113" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>11</v>
-      </c>
-      <c r="B114" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114">
+    <row r="114" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="2">
         <v>36</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F114" t="s">
-        <v>24</v>
-      </c>
-      <c r="G114" t="s">
-        <v>15</v>
-      </c>
-      <c r="I114" t="s">
+      <c r="F114" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I114" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="J114" t="s">
+      <c r="J114" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="K114" t="s">
+      <c r="K114" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>11</v>
-      </c>
-      <c r="B115" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115">
+    <row r="115" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="2">
         <v>36</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F115" t="s">
-        <v>24</v>
-      </c>
-      <c r="G115" t="s">
-        <v>15</v>
-      </c>
-      <c r="I115" t="s">
+      <c r="F115" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I115" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="J115" t="s">
+      <c r="J115" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K115" t="s">
+      <c r="K115" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>11</v>
-      </c>
-      <c r="B116" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116">
+    <row r="116" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="2">
         <v>36</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G116" t="s">
-        <v>15</v>
-      </c>
-      <c r="I116" t="s">
+      <c r="G116" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I116" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="J116" t="s">
+      <c r="J116" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="K116" t="s">
+      <c r="K116" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>11</v>
-      </c>
-      <c r="B117" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117">
+    <row r="117" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="2">
         <v>36</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G117" t="s">
-        <v>15</v>
-      </c>
-      <c r="I117" t="s">
+      <c r="G117" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I117" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J117" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="K117" t="s">
+      <c r="K117" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>11</v>
-      </c>
-      <c r="B118" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118">
+    <row r="118" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="2">
         <v>36</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F118" t="s">
-        <v>24</v>
-      </c>
-      <c r="G118" t="s">
-        <v>15</v>
-      </c>
-      <c r="I118" t="s">
+      <c r="F118" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="J118" t="s">
+      <c r="J118" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="K118" t="s">
+      <c r="K118" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>11</v>
-      </c>
-      <c r="B119" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119">
+    <row r="119" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A119" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="2">
         <v>36</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="F119" t="s">
-        <v>24</v>
-      </c>
-      <c r="G119" t="s">
-        <v>15</v>
-      </c>
-      <c r="I119" t="s">
+      <c r="F119" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I119" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="J119" t="s">
+      <c r="J119" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="K119" t="s">
+      <c r="K119" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>11</v>
-      </c>
-      <c r="B120" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120">
+    <row r="120" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A120" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="2">
         <v>36</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F120" t="s">
-        <v>24</v>
-      </c>
-      <c r="G120" t="s">
-        <v>15</v>
-      </c>
-      <c r="I120" t="s">
+      <c r="F120" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I120" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="J120" t="s">
+      <c r="J120" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="K120" t="s">
+      <c r="K120" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>11</v>
-      </c>
-      <c r="B121" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121">
+    <row r="121" spans="1:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="2">
         <v>36</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G121" t="s">
-        <v>15</v>
-      </c>
-      <c r="I121" t="s">
+      <c r="G121" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I121" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="J121" t="s">
+      <c r="J121" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="K121" t="s">
+      <c r="K121" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>11</v>
-      </c>
-      <c r="B122" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122">
+    <row r="122" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="2">
         <v>36</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G122" t="s">
-        <v>15</v>
-      </c>
-      <c r="I122" t="s">
+      <c r="G122" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I122" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="J122" t="s">
+      <c r="J122" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="K122" t="s">
+      <c r="K122" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>11</v>
-      </c>
-      <c r="B123" t="s">
-        <v>12</v>
-      </c>
-      <c r="C123">
+    <row r="123" spans="1:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A123" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="2">
         <v>36</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F123" t="s">
-        <v>24</v>
-      </c>
-      <c r="G123" t="s">
-        <v>15</v>
-      </c>
-      <c r="I123" t="s">
+      <c r="F123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I123" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="J123" t="s">
+      <c r="J123" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="K123" t="s">
+      <c r="K123" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>11</v>
-      </c>
-      <c r="B124" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124">
+    <row r="124" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="2">
         <v>36</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="F124" t="s">
-        <v>24</v>
-      </c>
-      <c r="G124" t="s">
-        <v>15</v>
-      </c>
-      <c r="I124" t="s">
+      <c r="F124" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I124" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="J124" t="s">
+      <c r="J124" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="K124" t="s">
+      <c r="K124" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>11</v>
-      </c>
-      <c r="B125" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125">
+    <row r="125" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A125" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="2">
         <v>36</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F125" t="s">
-        <v>24</v>
-      </c>
-      <c r="G125" t="s">
-        <v>15</v>
-      </c>
-      <c r="I125" t="s">
+      <c r="F125" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I125" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="J125" t="s">
+      <c r="J125" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="K125" t="s">
+      <c r="K125" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="L125" t="s">
+      <c r="L125" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>11</v>
-      </c>
-      <c r="B126" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126">
+    <row r="126" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="2">
         <v>36</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F126" t="s">
-        <v>24</v>
-      </c>
-      <c r="G126" t="s">
-        <v>15</v>
-      </c>
-      <c r="I126" t="s">
+      <c r="F126" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I126" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="J126" t="s">
+      <c r="J126" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="K126" t="s">
+      <c r="K126" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="L126" t="s">
+      <c r="L126" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>11</v>
-      </c>
-      <c r="B127" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127">
+    <row r="127" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="2">
         <v>36</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F127" t="s">
-        <v>24</v>
-      </c>
-      <c r="G127" t="s">
-        <v>15</v>
-      </c>
-      <c r="I127" t="s">
+      <c r="F127" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I127" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="J127" t="s">
+      <c r="J127" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="K127" t="s">
+      <c r="K127" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="L127" t="s">
+      <c r="L127" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>11</v>
-      </c>
-      <c r="B128" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128">
+    <row r="128" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="2">
         <v>36</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F128" t="s">
-        <v>24</v>
-      </c>
-      <c r="G128" t="s">
-        <v>15</v>
-      </c>
-      <c r="I128" t="s">
+      <c r="F128" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I128" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="J128" t="s">
+      <c r="J128" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="K128" t="s">
+      <c r="K128" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="L128" t="s">
+      <c r="L128" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>11</v>
-      </c>
-      <c r="B129" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129">
+    <row r="129" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="2">
         <v>36</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="F129" t="s">
-        <v>24</v>
-      </c>
-      <c r="G129" t="s">
-        <v>15</v>
-      </c>
-      <c r="I129" t="s">
+      <c r="F129" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="J129" t="s">
+      <c r="J129" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="K129" t="s">
+      <c r="K129" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="L129" t="s">
+      <c r="L129" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>11</v>
-      </c>
-      <c r="B130" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130">
+    <row r="130" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="2">
         <v>37</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F130" t="s">
-        <v>24</v>
-      </c>
-      <c r="G130" t="s">
-        <v>15</v>
-      </c>
-      <c r="H130" t="s">
+      <c r="F130" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I130" t="s">
+      <c r="I130" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="K130" t="s">
+      <c r="K130" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L130" t="s">
+      <c r="L130" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>11</v>
-      </c>
-      <c r="B131" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131">
+    <row r="131" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="2">
         <v>37</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F131" t="s">
-        <v>24</v>
-      </c>
-      <c r="G131" t="s">
-        <v>15</v>
-      </c>
-      <c r="I131" t="s">
+      <c r="F131" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I131" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="J131" t="s">
+      <c r="J131" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K131" t="s">
+      <c r="K131" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>11</v>
-      </c>
-      <c r="B132" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132">
+    <row r="132" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="2">
         <v>37</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F132" t="s">
-        <v>24</v>
-      </c>
-      <c r="G132" t="s">
-        <v>15</v>
-      </c>
-      <c r="I132" t="s">
+      <c r="F132" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I132" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="J132" t="s">
+      <c r="J132" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="K132" t="s">
+      <c r="K132" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>11</v>
-      </c>
-      <c r="B133" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133">
+    <row r="133" spans="1:12" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="A133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="2">
         <v>38</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F133" t="s">
-        <v>24</v>
-      </c>
-      <c r="G133" t="s">
-        <v>15</v>
-      </c>
-      <c r="I133" t="s">
+      <c r="F133" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I133" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="J133" t="s">
+      <c r="J133" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="K133" t="s">
+      <c r="K133" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>11</v>
-      </c>
-      <c r="B134" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134">
+    <row r="134" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="A134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="2">
         <v>38</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F134" t="s">
-        <v>24</v>
-      </c>
-      <c r="G134" t="s">
-        <v>15</v>
-      </c>
-      <c r="I134" t="s">
+      <c r="F134" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I134" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="J134" t="s">
+      <c r="J134" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="K134" t="s">
+      <c r="K134" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>11</v>
-      </c>
-      <c r="B135" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135">
+    <row r="135" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="A135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="2">
         <v>38</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F135" t="s">
-        <v>24</v>
-      </c>
-      <c r="G135" t="s">
-        <v>15</v>
-      </c>
-      <c r="H135" t="s">
+      <c r="F135" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="I135" t="s">
+      <c r="I135" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="J135" t="s">
+      <c r="J135" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="K135" t="s">
+      <c r="K135" s="2" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>11</v>
-      </c>
-      <c r="B136" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136">
+    <row r="136" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="A136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="2">
         <v>38</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F136" t="s">
-        <v>24</v>
-      </c>
-      <c r="G136" t="s">
-        <v>15</v>
-      </c>
-      <c r="I136" t="s">
+      <c r="F136" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I136" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="J136" t="s">
+      <c r="J136" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="K136" t="s">
+      <c r="K136" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>11</v>
-      </c>
-      <c r="B137" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137">
+    <row r="137" spans="1:12" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="A137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" s="2">
         <v>38</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G137" t="s">
-        <v>15</v>
-      </c>
-      <c r="I137" t="s">
+      <c r="G137" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I137" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="J137" t="s">
+      <c r="J137" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="K137" t="s">
+      <c r="K137" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>11</v>
-      </c>
-      <c r="B138" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138">
+    <row r="138" spans="1:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="2">
         <v>38</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G138" t="s">
-        <v>15</v>
-      </c>
-      <c r="I138" t="s">
+      <c r="G138" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I138" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="J138" t="s">
+      <c r="J138" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="K138" t="s">
+      <c r="K138" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>11</v>
-      </c>
-      <c r="B139" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139">
+    <row r="139" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="A139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="2">
         <v>38</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G139" t="s">
-        <v>15</v>
-      </c>
-      <c r="H139" t="s">
+      <c r="G139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="I139" t="s">
+      <c r="I139" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="J139" t="s">
+      <c r="J139" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="K139" t="s">
+      <c r="K139" s="2" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>11</v>
-      </c>
-      <c r="B140" t="s">
-        <v>12</v>
-      </c>
-      <c r="C140">
+    <row r="140" spans="1:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="A140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" s="2">
         <v>38</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G140" t="s">
-        <v>15</v>
-      </c>
-      <c r="I140" t="s">
+      <c r="G140" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I140" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="J140" t="s">
+      <c r="J140" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="K140" t="s">
+      <c r="K140" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>11</v>
-      </c>
-      <c r="B141" t="s">
-        <v>12</v>
-      </c>
-      <c r="C141">
+    <row r="141" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" s="2">
         <v>38</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G141" t="s">
-        <v>15</v>
-      </c>
-      <c r="I141" t="s">
+      <c r="G141" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I141" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="J141" t="s">
+      <c r="J141" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="K141" t="s">
+      <c r="K141" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>11</v>
-      </c>
-      <c r="B142" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142">
+    <row r="142" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="2">
         <v>38</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G142" t="s">
-        <v>15</v>
-      </c>
-      <c r="I142" t="s">
+      <c r="G142" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I142" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="J142" t="s">
+      <c r="J142" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="K142" t="s">
+      <c r="K142" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="L142" t="s">
+      <c r="L142" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>11</v>
-      </c>
-      <c r="B143" t="s">
-        <v>12</v>
-      </c>
-      <c r="C143">
+    <row r="143" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" s="2">
         <v>39</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F143" t="s">
-        <v>24</v>
-      </c>
-      <c r="G143" t="s">
-        <v>15</v>
-      </c>
-      <c r="I143" t="s">
+      <c r="F143" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I143" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="J143" t="s">
+      <c r="J143" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="K143" t="s">
+      <c r="K143" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>11</v>
-      </c>
-      <c r="B144" t="s">
-        <v>12</v>
-      </c>
-      <c r="C144">
+    <row r="144" spans="1:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="2">
         <v>39</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="F144" t="s">
-        <v>24</v>
-      </c>
-      <c r="G144" t="s">
-        <v>15</v>
-      </c>
-      <c r="I144" t="s">
+      <c r="F144" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I144" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="J144" t="s">
+      <c r="J144" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="K144" t="s">
+      <c r="K144" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="L144" t="s">
+      <c r="L144" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>11</v>
-      </c>
-      <c r="B145" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145">
+    <row r="145" spans="1:11" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="2">
         <v>39</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F145" t="s">
-        <v>24</v>
-      </c>
-      <c r="G145" t="s">
-        <v>15</v>
-      </c>
-      <c r="I145" t="s">
+      <c r="F145" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I145" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="J145" t="s">
+      <c r="J145" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="K145" t="s">
+      <c r="K145" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>11</v>
-      </c>
-      <c r="B146" t="s">
-        <v>12</v>
-      </c>
-      <c r="C146">
+    <row r="146" spans="1:11" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A146" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" s="2">
         <v>40</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F146" t="s">
-        <v>24</v>
-      </c>
-      <c r="G146" t="s">
-        <v>15</v>
-      </c>
-      <c r="I146" t="s">
+      <c r="F146" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I146" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="J146" t="s">
+      <c r="J146" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="K146" t="s">
+      <c r="K146" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>11</v>
-      </c>
-      <c r="B147" t="s">
-        <v>12</v>
-      </c>
-      <c r="C147">
+    <row r="147" spans="1:11" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" s="2">
         <v>40</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="F147" t="s">
-        <v>24</v>
-      </c>
-      <c r="G147" t="s">
-        <v>15</v>
-      </c>
-      <c r="I147" t="s">
+      <c r="F147" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I147" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="J147" t="s">
+      <c r="J147" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="K147" t="s">
+      <c r="K147" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>11</v>
-      </c>
-      <c r="B148" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148">
+    <row r="148" spans="1:11" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" s="2">
         <v>40</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G148" t="s">
-        <v>15</v>
-      </c>
-      <c r="I148" t="s">
+      <c r="G148" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I148" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="J148" t="s">
+      <c r="J148" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="K148" t="s">
+      <c r="K148" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>11</v>
-      </c>
-      <c r="B149" t="s">
-        <v>12</v>
-      </c>
-      <c r="C149">
+    <row r="149" spans="1:11" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" s="2">
         <v>40</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G149" t="s">
-        <v>15</v>
-      </c>
-      <c r="I149" t="s">
+      <c r="G149" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I149" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="J149" t="s">
+      <c r="J149" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="K149" t="s">
+      <c r="K149" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>11</v>
-      </c>
-      <c r="B150" t="s">
-        <v>12</v>
-      </c>
-      <c r="C150">
+    <row r="150" spans="1:11" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="A150" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" s="2">
         <v>40</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F150" t="s">
-        <v>24</v>
-      </c>
-      <c r="G150" t="s">
-        <v>15</v>
-      </c>
-      <c r="I150" t="s">
+      <c r="F150" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I150" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="J150" t="s">
+      <c r="J150" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="K150" t="s">
+      <c r="K150" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>11</v>
-      </c>
-      <c r="B151" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151">
+    <row r="151" spans="1:11" ht="102" x14ac:dyDescent="0.4">
+      <c r="A151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" s="2">
         <v>40</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G151" t="s">
-        <v>15</v>
-      </c>
-      <c r="I151" t="s">
+      <c r="G151" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I151" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="J151" t="s">
+      <c r="J151" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="K151" t="s">
+      <c r="K151" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>11</v>
-      </c>
-      <c r="B152" t="s">
-        <v>12</v>
-      </c>
-      <c r="C152">
+    <row r="152" spans="1:11" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="2">
         <v>40</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="F152" t="s">
-        <v>24</v>
-      </c>
-      <c r="G152" t="s">
-        <v>15</v>
-      </c>
-      <c r="I152" t="s">
+      <c r="F152" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I152" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="J152" t="s">
+      <c r="J152" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="K152" t="s">
+      <c r="K152" s="2" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>11</v>
-      </c>
-      <c r="B153" t="s">
-        <v>12</v>
-      </c>
-      <c r="C153" t="s">
+    <row r="153" spans="1:11" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="F153" t="s">
-        <v>24</v>
-      </c>
-      <c r="G153" t="s">
-        <v>15</v>
-      </c>
-      <c r="I153" t="s">
+      <c r="F153" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I153" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="J153" t="s">
+      <c r="J153" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="K153" t="s">
+      <c r="K153" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>11</v>
-      </c>
-      <c r="B154" t="s">
-        <v>12</v>
-      </c>
-      <c r="C154">
+    <row r="154" spans="1:11" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="2">
         <v>41</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G154" t="s">
-        <v>15</v>
-      </c>
-      <c r="I154" t="s">
+      <c r="G154" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I154" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="J154" t="s">
+      <c r="J154" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="K154" t="s">
+      <c r="K154" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>11</v>
-      </c>
-      <c r="B155" t="s">
-        <v>12</v>
-      </c>
-      <c r="C155">
+    <row r="155" spans="1:11" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" s="2">
         <v>41</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F155" t="s">
-        <v>24</v>
-      </c>
-      <c r="G155" t="s">
-        <v>15</v>
-      </c>
-      <c r="I155" t="s">
+      <c r="F155" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I155" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="J155" t="s">
+      <c r="J155" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="K155" t="s">
+      <c r="K155" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>11</v>
-      </c>
-      <c r="B156" t="s">
-        <v>12</v>
-      </c>
-      <c r="C156">
+    <row r="156" spans="1:11" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" s="2">
         <v>41</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="F156" t="s">
-        <v>24</v>
-      </c>
-      <c r="G156" t="s">
-        <v>15</v>
-      </c>
-      <c r="I156" t="s">
+      <c r="F156" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I156" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="J156" t="s">
+      <c r="J156" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="K156" t="s">
+      <c r="K156" s="2" t="s">
         <v>239</v>
       </c>
     </row>
